--- a/test1.xlsx
+++ b/test1.xlsx
@@ -1,12 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
+  <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
-    <s:workbookView activeTab="0"/>
+    <s:workbookView activeTab="1"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="1" sheetId="1" r:id="rId1"/>
+    <s:sheet name="2" sheetId="2" r:id="rId2"/>
+    <s:sheet name="3" sheetId="3" r:id="rId3"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>light</t>
   </si>
@@ -35,6 +37,120 @@
   </si>
   <si>
     <t>window</t>
+  </si>
+  <si>
+    <t>Word 1</t>
+  </si>
+  <si>
+    <t>Word 2</t>
+  </si>
+  <si>
+    <t>LCH</t>
+  </si>
+  <si>
+    <t>WUP</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Word 1 Definition</t>
+  </si>
+  <si>
+    <t>Word 2 Definition</t>
+  </si>
+  <si>
+    <t>the quality of being luminous; emitting or reflecting light</t>
+  </si>
+  <si>
+    <t>absence of light or illumination</t>
+  </si>
+  <si>
+    <t>a vessel that carries passengers or freight</t>
+  </si>
+  <si>
+    <t>a large piece of fabric (usually canvas fabric) by means of which wind is used to propel a sailing vessel</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>an expression of greeting</t>
+  </si>
+  <si>
+    <t>a farewell remark</t>
+  </si>
+  <si>
+    <t>Undefined</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>a unit of language that native speakers can identify</t>
+  </si>
+  <si>
+    <t>a content word that can be used to refer to a person, place, thing, quality, or action</t>
+  </si>
+  <si>
+    <t>walrus</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>either of two large northern marine mammals having ivory tusks and tough hide over thick blubber</t>
+  </si>
+  <si>
+    <t>a very strong thick rope made of twisted hemp or steel wire</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>a framework of wood or metal that contains a glass windowpane and is built into a wall or roof to admit light or air</t>
+  </si>
+  <si>
+    <t>a swinging or sliding barrier that will close the entrance to a room or building or vehicle</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>a seat for one person, with a support for the back</t>
+  </si>
+  <si>
+    <t>a piece of furniture having a smooth flat top that is usually supported by one or more vertical legs</t>
+  </si>
+  <si>
+    <t>photon</t>
+  </si>
+  <si>
+    <t>pencil</t>
+  </si>
+  <si>
+    <t>a quantum of electromagnetic radiation; an elementary particle that is its own antiparticle</t>
+  </si>
+  <si>
+    <t>a thin cylindrical pointed writing implement; a rod of marking substance encased in wood</t>
+  </si>
+  <si>
+    <t>(physics) electromagnetic radiation that can produce a visual sensation</t>
+  </si>
+  <si>
+    <t>a telegram sent abroad</t>
+  </si>
+  <si>
+    <t>a set of data arranged in rows and columns</t>
   </si>
 </sst>
 </file>
@@ -585,4 +701,511 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="2" min="1" width="10.42578125"/>
+    <col bestFit="1" customWidth="1" max="2" min="1" width="10.42578125"/>
+    <col bestFit="1" customWidth="1" max="5" min="3" width="12"/>
+    <col bestFit="1" customWidth="1" max="5" min="3" width="12"/>
+    <col bestFit="1" customWidth="1" max="5" min="3" width="12"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="104.42578125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="93"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.691676010671072</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.33500106673234</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.028148247292286</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.538973871058276</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9295359586241757</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.55814461804655</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.251291798606495</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.152679509938386</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8649974374866046</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.33500106673234</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.028148247292286</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.538973871058276</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.55814461804655</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9295359586241757</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.152679509938386</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/test1.xlsx
+++ b/test1.xlsx
@@ -9,6 +9,10 @@
     <s:sheet name="1" sheetId="1" r:id="rId1"/>
     <s:sheet name="2" sheetId="2" r:id="rId2"/>
     <s:sheet name="3" sheetId="3" r:id="rId3"/>
+    <s:sheet name="10" sheetId="4" r:id="rId4"/>
+    <s:sheet name="11" sheetId="5" r:id="rId5"/>
+    <s:sheet name="12" sheetId="6" r:id="rId6"/>
+    <s:sheet name="121" sheetId="7" r:id="rId7"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>light</t>
   </si>
@@ -151,6 +155,186 @@
   </si>
   <si>
     <t>a set of data arranged in rows and columns</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>polys.noun</t>
+  </si>
+  <si>
+    <t>polys.adj</t>
+  </si>
+  <si>
+    <t>polys.sat_adj</t>
+  </si>
+  <si>
+    <t>polys.adv</t>
+  </si>
+  <si>
+    <t>polys.verb</t>
+  </si>
+  <si>
+    <t>mindep.noun</t>
+  </si>
+  <si>
+    <t>mindep.adj</t>
+  </si>
+  <si>
+    <t>mindep.sat_adj</t>
+  </si>
+  <si>
+    <t>mindep.adv</t>
+  </si>
+  <si>
+    <t>mindep.verb</t>
+  </si>
+  <si>
+    <t>acquired</t>
+  </si>
+  <si>
+    <t>allocated</t>
+  </si>
+  <si>
+    <t>altered</t>
+  </si>
+  <si>
+    <t>amended</t>
+  </si>
+  <si>
+    <t>amnesty</t>
+  </si>
+  <si>
+    <t>apathy</t>
+  </si>
+  <si>
+    <t>aptitude</t>
+  </si>
+  <si>
+    <t>assess</t>
+  </si>
+  <si>
+    <t>assumed</t>
+  </si>
+  <si>
+    <t>attained</t>
+  </si>
+  <si>
+    <t>attributes</t>
+  </si>
+  <si>
+    <t>cohesion</t>
+  </si>
+  <si>
+    <t>compatible</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>components</t>
+  </si>
+  <si>
+    <t>comprises</t>
+  </si>
+  <si>
+    <t>conclusion</t>
+  </si>
+  <si>
+    <t>conserve</t>
+  </si>
+  <si>
+    <t>contaminated</t>
+  </si>
+  <si>
+    <t>contrast</t>
+  </si>
+  <si>
+    <t>controversy</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>disproportionately</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>documented</t>
+  </si>
+  <si>
+    <t>eliminated</t>
+  </si>
+  <si>
+    <t>emphasized</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>enforced</t>
+  </si>
+  <si>
+    <t>equity</t>
+  </si>
+  <si>
+    <t>excluded</t>
+  </si>
+  <si>
+    <t>extracted</t>
+  </si>
+  <si>
+    <t>generate</t>
+  </si>
+  <si>
+    <t>incentives</t>
+  </si>
+  <si>
+    <t>interaction</t>
+  </si>
+  <si>
+    <t>intrinsic</t>
+  </si>
+  <si>
+    <t>invasion</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>maintained</t>
+  </si>
+  <si>
+    <t>obtain</t>
+  </si>
+  <si>
+    <t>outweigh</t>
+  </si>
+  <si>
+    <t>paralyzed</t>
+  </si>
+  <si>
+    <t>perceived</t>
+  </si>
+  <si>
+    <t>prescribed</t>
+  </si>
+  <si>
+    <t>recite</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>restricted</t>
+  </si>
+  <si>
+    <t>retain</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -1208,4 +1392,6940 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" t="s">
+        <v>104</v>
+      </c>
+      <c r="J27" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" t="s">
+        <v>104</v>
+      </c>
+      <c r="J30" t="s">
+        <v>104</v>
+      </c>
+      <c r="K30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" t="s">
+        <v>104</v>
+      </c>
+      <c r="K31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J32" t="s">
+        <v>104</v>
+      </c>
+      <c r="K32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" t="s">
+        <v>104</v>
+      </c>
+      <c r="K33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" t="s">
+        <v>104</v>
+      </c>
+      <c r="K34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" t="s">
+        <v>104</v>
+      </c>
+      <c r="J35" t="s">
+        <v>104</v>
+      </c>
+      <c r="K35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" t="s">
+        <v>104</v>
+      </c>
+      <c r="I36" t="s">
+        <v>104</v>
+      </c>
+      <c r="J36" t="s">
+        <v>104</v>
+      </c>
+      <c r="K36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" t="s">
+        <v>104</v>
+      </c>
+      <c r="J37" t="s">
+        <v>104</v>
+      </c>
+      <c r="K37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" t="s">
+        <v>104</v>
+      </c>
+      <c r="J38" t="s">
+        <v>104</v>
+      </c>
+      <c r="K38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" t="s">
+        <v>104</v>
+      </c>
+      <c r="I39" t="s">
+        <v>104</v>
+      </c>
+      <c r="J39" t="s">
+        <v>104</v>
+      </c>
+      <c r="K39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I40" t="s">
+        <v>104</v>
+      </c>
+      <c r="J40" t="s">
+        <v>104</v>
+      </c>
+      <c r="K40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" t="s">
+        <v>104</v>
+      </c>
+      <c r="J41" t="s">
+        <v>104</v>
+      </c>
+      <c r="K41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" t="s">
+        <v>104</v>
+      </c>
+      <c r="J42" t="s">
+        <v>104</v>
+      </c>
+      <c r="K42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I43" t="s">
+        <v>104</v>
+      </c>
+      <c r="J43" t="s">
+        <v>104</v>
+      </c>
+      <c r="K43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" t="s">
+        <v>104</v>
+      </c>
+      <c r="J44" t="s">
+        <v>104</v>
+      </c>
+      <c r="K44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45" t="s">
+        <v>104</v>
+      </c>
+      <c r="I45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J45" t="s">
+        <v>104</v>
+      </c>
+      <c r="K45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" t="s">
+        <v>104</v>
+      </c>
+      <c r="I46" t="s">
+        <v>104</v>
+      </c>
+      <c r="J46" t="s">
+        <v>104</v>
+      </c>
+      <c r="K46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" t="s">
+        <v>104</v>
+      </c>
+      <c r="I47" t="s">
+        <v>104</v>
+      </c>
+      <c r="J47" t="s">
+        <v>104</v>
+      </c>
+      <c r="K47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" t="s">
+        <v>104</v>
+      </c>
+      <c r="I48" t="s">
+        <v>104</v>
+      </c>
+      <c r="J48" t="s">
+        <v>104</v>
+      </c>
+      <c r="K48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" t="s">
+        <v>104</v>
+      </c>
+      <c r="I49" t="s">
+        <v>104</v>
+      </c>
+      <c r="J49" t="s">
+        <v>104</v>
+      </c>
+      <c r="K49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>